--- a/PATP_SoftwareWPF/Reports/Files/Отчет отдела кадров.xlsx
+++ b/PATP_SoftwareWPF/Reports/Files/Отчет отдела кадров.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Работники</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>йцув</t>
+  </si>
+  <si>
+    <t>ыфс</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,6 +455,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0">
+        <v>34144134134</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/PATP_SoftwareWPF/Reports/Files/Отчет отдела кадров.xlsx
+++ b/PATP_SoftwareWPF/Reports/Files/Отчет отдела кадров.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Работники</t>
   </si>
@@ -99,15 +99,6 @@
   </si>
   <si>
     <t>тест</t>
-  </si>
-  <si>
-    <t>вйуц</t>
-  </si>
-  <si>
-    <t>йцув</t>
-  </si>
-  <si>
-    <t>ыфс</t>
   </si>
 </sst>
 </file>
@@ -156,7 +147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -395,32 +386,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="0">
-        <v>31411231341</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>17</v>
@@ -435,43 +406,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E15" s="0">
         <v>31411231341</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="0">
-        <v>34144134134</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>16</v>
       </c>
     </row>
